--- a/biology/Botanique/Genêt_des_teinturiers/Genêt_des_teinturiers.xlsx
+++ b/biology/Botanique/Genêt_des_teinturiers/Genêt_des_teinturiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_des_teinturiers</t>
+          <t>Genêt_des_teinturiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genista tinctoria
 Le Genêt des teinturiers (Genista tinctoria) est une espèce d'arbustes de la famille des Fabaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_des_teinturiers</t>
+          <t>Genêt_des_teinturiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste bas présentant un rhizome ligneux rampant qui porte des tiges herbacées aux feuilles caduques alternes et linéaires. Le fruit est une gousse déhiscente contenant des graines ovales plates de couleur fauve.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gen%C3%AAt_des_teinturiers</t>
+          <t>Genêt_des_teinturiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
